--- a/Data-limited/ハイブリッド講義資料/DLMapper_日本版up.xlsx
+++ b/Data-limited/ハイブリッド講義資料/DLMapper_日本版up.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,7 @@
     <sheet name="◎入力_1種" sheetId="4" r:id="rId1"/>
     <sheet name="◎1種_図" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,26 +85,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>モデルの改善</t>
-    <rPh sb="4" eb="6">
-      <t>カイゼン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>動的な管理方策</t>
-    <rPh sb="0" eb="2">
-      <t>ドウテキ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>カンリホウサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ガバナンスの改善</t>
+    <t>◎肌色セルが入力するセルです.その他は自動で計算されます</t>
+    <rPh sb="1" eb="2">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
     <rPh sb="6" eb="8">
-      <t>カイゼン</t>
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイサン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -119,9 +117,37 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>制限</t>
+    <rPh sb="0" eb="2">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基準</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>漁獲量</t>
     <rPh sb="0" eb="3">
       <t>ギョカクリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>資源量指標値</t>
+    <rPh sb="0" eb="6">
+      <t>シゲンリョウシヒョウチ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -146,256 +172,9 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>時系列の長さ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>空間的カバレージ</t>
-    <rPh sb="0" eb="3">
-      <t>クウカンテキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>種の識別</t>
-    <rPh sb="0" eb="1">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シキベツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>0：種（もしくは系群）単位の情報が充分にある
-1：小程度の交じり
-2：中程度の交じり
-3：種特有の情報はほとんどなく，ひとかまたりとして扱っている</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>時間</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>0：資源評価を行う上で時間的な制約はない
-1：時間的制約は少しあるが，資源評価手法の改善等を試す時間が少しはとれる
-2：前年度からのデータの更新等に時間を要し，手法等の改善をする時間はほぼとれない
-3：資源評価のための時間がほぼとれない</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>資金</t>
-    <rPh sb="0" eb="2">
-      <t>シキン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>能力</t>
-    <rPh sb="0" eb="2">
-      <t>ノウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>分析者：資源</t>
-    <rPh sb="0" eb="2">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シゲン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>枠組み</t>
-    <rPh sb="0" eb="2">
-      <t>ワクグ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>主要な漁業からデータを収集するための枠組みがない（国、漁業）。ない場合１，ある場合０</t>
-    <rPh sb="0" eb="2">
-      <t>シュヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ギョギョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュウシュウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ワクグ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>クニ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ギョギョウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>データトレーニング</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>データの改善</t>
-    <rPh sb="4" eb="6">
-      <t>カイゼン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>資源量指標値</t>
-    <rPh sb="0" eb="6">
-      <t>シゲンリョウシヒョウチ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>分類</t>
-    <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基準</t>
-    <rPh sb="0" eb="2">
-      <t>キジュン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0: 40年以上
-1: 10－40年
-2: 10年未満
-3: 利用できない</t>
-    <rPh sb="5" eb="8">
-      <t>ネンイジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ミマン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>0: ほぼ全域をカバー
-1: 全部ではないが主要な部分をカバー
-2: 一部のみカバー
-3: 利用できない
-※同じ系群内において外国漁獲量が不明の場合，それも考慮して判断</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>偏り(bias)</t>
-    <rPh sb="0" eb="1">
-      <t>カタヨ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>精度(precision)</t>
-    <rPh sb="0" eb="2">
-      <t>セイド</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>0：各資源について最低でも一人の解析者がいる，一人の担当者は一つの資源を解析
-1：対象種数に対する分析者数の制限は小程度，一人の担当者が2つの資源を解析
-2：対象種数に対する分析者数の制限は中程度，一人の担当者が3つの資源を解析
-3：対象種数に対する分析者数の制限は大きく，一人の分析者が4つ以上の資源を解析</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>制限</t>
-    <rPh sb="0" eb="2">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リソース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>種類</t>
-    <rPh sb="0" eb="2">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>複雑な手法</t>
-    <rPh sb="0" eb="2">
-      <t>フクザツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>解析トレーニング</t>
-    <rPh sb="0" eb="2">
-      <t>カイセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ローカルな知見</t>
-    <rPh sb="5" eb="7">
-      <t>チケン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>0：制約はない
-1：小程度の制約がある
-2：中程度の制約がある
-3：主要な制約がある</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>0：複雑な資源評価を実施できる高度な訓練を受けた分析者が充分いる
-1：小程度の制限要因（ある程度専門的なスタッフはいる）
-2：中程度の制限要因（専門的な人材は不足しているが，周囲のサポートがあればある程度対応できる
-3：大きな制限要因（専門的な人材はいなく，周囲に相談できる環境もない）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>指針</t>
-    <rPh sb="0" eb="2">
-      <t>シシン</t>
+    <t>スコア（自動計算）</t>
+    <rPh sb="4" eb="8">
+      <t>ジドウケイサン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -404,53 +183,15 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>集計</t>
-    <rPh sb="0" eb="2">
-      <t>シュウケイ</t>
-    </rPh>
+    <t>データ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>AVERAGE（データ）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AVERAGE(リソース)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>単純な手法</t>
+    <t>種類</t>
     <rPh sb="0" eb="2">
-      <t>タンジュン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スコア（自動計算）</t>
-    <rPh sb="4" eb="8">
-      <t>ジドウケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スコア(自動計算）</t>
-    <rPh sb="4" eb="8">
-      <t>ジドウケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>静的な管理指標</t>
-    <rPh sb="0" eb="2">
-      <t>セイテキ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>カンリシヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -643,6 +384,71 @@
     </rPh>
     <rPh sb="261" eb="264">
       <t>セイジュクリツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>時系列の長さ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0: 40年以上
+1: 10－40年
+2: 10年未満
+3: 利用できない</t>
+    <rPh sb="5" eb="8">
+      <t>ネンイジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>空間的カバレージ</t>
+    <rPh sb="0" eb="3">
+      <t>クウカンテキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0: ほぼ全域をカバー
+1: 全部ではないが主要な部分をカバー
+2: 一部のみカバー
+3: 利用できない
+※同じ系群内において外国漁獲量が不明の場合，それも考慮して判断</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>種の識別</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0：種（もしくは系群）単位の情報が充分にある
+1：小程度の交じり
+2：中程度の交じり
+3：種特有の情報はほとんどなく，ひとかまたりとして扱っている</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>偏り(bias)</t>
+    <rPh sb="0" eb="1">
+      <t>カタヨ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -739,6 +545,13 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>精度(precision)</t>
+    <rPh sb="0" eb="2">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>※サンプルサイズの少なさ，観測誤差の大きさ等による制約度合い。1回のサンプリングにおける観察数から判断する。　　　　　　　　　　　　　　　　　　　　0: 非常に正確(CV&lt;5%)
 1: ある程度正確(5%≦CV&lt;30%)
 2: 中程度の正確さ(30%≦CV&lt;50%)
@@ -746,24 +559,211 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>◎肌色セルが入力するセルです.その他は自動で計算されます</t>
-    <rPh sb="1" eb="2">
-      <t>ハダ</t>
+    <t>リソース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0：資源評価を行う上で時間的な制約はない
+1：時間的制約は少しあるが，資源評価手法の改善等を試す時間が少しはとれる
+2：前年度からのデータの更新等に時間を要し，手法等の改善をする時間はほぼとれない
+3：資源評価のための時間がほぼとれない</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>資金</t>
+    <rPh sb="0" eb="2">
+      <t>シキン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0：制約はない
+1：小程度の制約がある
+2：中程度の制約がある
+3：主要な制約がある</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>能力</t>
+    <rPh sb="0" eb="2">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0：複雑な資源評価を実施できる高度な訓練を受けた分析者が充分いる
+1：小程度の制限要因（ある程度専門的なスタッフはいる）
+2：中程度の制限要因（専門的な人材は不足しているが，周囲のサポートがあればある程度対応できる
+3：大きな制限要因（専門的な人材はいなく，周囲に相談できる環境もない）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>分析者：資源</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>イロ</t>
-    </rPh>
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0：各資源について最低でも一人の解析者がいる，一人の担当者は一つの資源を解析
+1：対象種数に対する分析者数の制限は小程度，一人の担当者が2つの資源を解析
+2：対象種数に対する分析者数の制限は中程度，一人の担当者が3つの資源を解析
+3：対象種数に対する分析者数の制限は大きく，一人の分析者が4つ以上の資源を解析</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>枠組み</t>
+    <rPh sb="0" eb="2">
+      <t>ワクグ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>主要な漁業からデータを収集するための枠組みがない（国、漁業）。ない場合１，ある場合０</t>
+    <rPh sb="0" eb="2">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギョギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ワクグ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ギョギョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>集計</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AVERAGE（データ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AVERAGE(リソース)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指針</t>
+    <rPh sb="0" eb="2">
+      <t>シシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スコア(自動計算）</t>
+    <rPh sb="4" eb="8">
+      <t>ジドウケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データトレーニング</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データの改善</t>
+    <rPh sb="4" eb="6">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ローカルな知見</t>
+    <rPh sb="5" eb="7">
+      <t>チケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>解析トレーニング</t>
+    <rPh sb="0" eb="2">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単純な手法</t>
+    <rPh sb="0" eb="2">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複雑な手法</t>
+    <rPh sb="0" eb="2">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデルの改善</t>
+    <rPh sb="4" eb="6">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>静的な管理指標</t>
+    <rPh sb="0" eb="2">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>カンリシヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動的な管理方策</t>
+    <rPh sb="0" eb="2">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>カンリホウサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガバナンスの改善</t>
     <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ケイサン</t>
+      <t>カイゼン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1512,6 +1512,9 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1540,9 +1543,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1636,7 +1636,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1824,7 +1824,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="98882959"/>
@@ -1894,7 +1894,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1926,7 +1926,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="98882479"/>
@@ -1972,7 +1972,7 @@
           <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2048,7 +2048,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2208,7 +2208,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="120280591"/>
@@ -2278,7 +2278,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2314,7 +2314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="120280111"/>
@@ -2360,7 +2360,7 @@
           <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2436,7 +2436,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2624,7 +2624,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="98882959"/>
@@ -2660,7 +2660,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>#REF!</c:f>
+              <c:f>◎1種_図!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2694,7 +2694,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2726,7 +2726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="98882479"/>
@@ -2772,7 +2772,7 @@
           <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2848,7 +2848,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3022,7 +3022,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="120280591"/>
@@ -3058,7 +3058,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>#REF!</c:f>
+              <c:f>◎1種_図!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3092,7 +3092,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3128,7 +3128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="120280111"/>
@@ -3174,7 +3174,7 @@
           <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3250,7 +3250,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3450,7 +3450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1670597311"/>
@@ -3510,7 +3510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1670596351"/>
@@ -3552,7 +3552,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3589,7 +3589,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3665,7 +3665,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3851,7 +3851,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1670597311"/>
@@ -3911,7 +3911,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1670596351"/>
@@ -3953,7 +3953,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3990,7 +3990,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4066,7 +4066,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4212,7 +4212,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4248,7 +4248,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="93893919"/>
@@ -4323,7 +4323,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4359,7 +4359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="93899199"/>
@@ -4401,7 +4401,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4438,7 +4438,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8835,9 +8835,9 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8854,55 +8854,55 @@
       <c r="A1" s="48"/>
       <c r="B1" s="49"/>
       <c r="C1" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="35.25" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="113.25" customHeight="1">
-      <c r="A3" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>31</v>
+      <c r="A3" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D3" s="15">
         <v>0</v>
@@ -8916,17 +8916,17 @@
       <c r="G3" s="17">
         <v>0</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="52">
         <f>AVERAGE(D3:G3,D4:E4)</f>
         <v>0</v>
       </c>
       <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="186" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
-        <v>47</v>
+      <c r="A4" s="55"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="51" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -8936,16 +8936,16 @@
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="52"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="90" customHeight="1">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="22">
         <v>0</v>
@@ -8966,12 +8966,12 @@
       <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="99.75" customHeight="1" thickBot="1">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="21" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" s="26">
         <v>0</v>
@@ -8992,12 +8992,12 @@
       <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="73.5" customHeight="1" thickBot="1">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="21" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" s="28">
         <v>0</v>
@@ -9018,12 +9018,12 @@
       <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="409.5" customHeight="1" thickBot="1">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D8" s="27">
         <v>0</v>
@@ -9044,12 +9044,12 @@
       <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="116.25" customHeight="1" thickBot="1">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D9" s="27">
         <v>0</v>
@@ -9070,14 +9070,14 @@
       <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" s="30" customFormat="1" ht="93.75">
-      <c r="A10" s="56" t="s">
-        <v>30</v>
+      <c r="A10" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D10" s="23">
         <v>0</v>
@@ -9090,12 +9090,12 @@
       <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9" s="30" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="21" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11" s="23">
         <v>0</v>
@@ -9108,12 +9108,12 @@
       <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9" s="30" customFormat="1" ht="93.75">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="21" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" s="23">
         <v>0</v>
@@ -9126,12 +9126,12 @@
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" s="30" customFormat="1" ht="113.25" thickBot="1">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="21" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" s="33">
         <v>0</v>
@@ -9146,10 +9146,10 @@
     <row r="14" spans="1:9" s="30" customFormat="1" ht="38.25" thickBot="1">
       <c r="A14" s="47"/>
       <c r="B14" s="34" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D14" s="35">
         <v>0</v>
@@ -9165,10 +9165,10 @@
     </row>
     <row r="15" spans="1:9" ht="24.75">
       <c r="B15" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H15" s="44">
         <f>AVERAGE(H3:H9)</f>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="16" spans="1:9" ht="24.75">
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H16" s="44">
         <f>AVERAGE(H10:H13)</f>
@@ -9186,15 +9186,15 @@
     </row>
     <row r="18" spans="2:4" customFormat="1" ht="28.5">
       <c r="B18" s="45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="29.25" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C19" s="44">
         <f>IF(H15=3,3,AVERAGE(H3:H9,H12))</f>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="20" spans="2:4" ht="24.75">
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C20" s="44">
         <f>H15</f>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="21" spans="2:4" ht="24.75">
       <c r="B21" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C21" s="44">
         <f>IF(H15=3, 3, AVERAGE(H15,H16))</f>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="22" spans="2:4" ht="24.75">
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C22" s="44">
         <f>AVERAGE(H12,H15,AVERAGE(H10,H11,H13))</f>
@@ -9234,7 +9234,7 @@
     </row>
     <row r="23" spans="2:4" ht="24.75">
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C23" s="44">
         <f>IF(AVERAGE(H3,H10:H13)=3, 0, AVERAGE(H3, H10:H13))</f>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="24" spans="2:4" ht="24.75">
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C24" s="44">
         <f>IF(H15=3, 0, AVERAGE(3-H15, 3-H16))</f>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="25" spans="2:4" ht="24.75">
       <c r="B25" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C25" s="44">
         <f>IF(OR(H15=3,H16=3), 0, AVERAGE(3-H15, 3-H16))</f>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="26" spans="2:4" ht="24.75">
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C26" s="44">
         <f>MAX(H15,H16)</f>
@@ -9274,7 +9274,7 @@
     </row>
     <row r="27" spans="2:4" ht="24.75">
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C27" s="44">
         <f>AVERAGE(3-H3, 3-AVERAGE(H6,H10:H13))</f>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="28" spans="2:4" ht="24.75">
       <c r="B28" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C28" s="44">
         <f>IF(AVERAGE(H10,H11,H12)=3, 3, AVERAGE(H3,H7,H10,H11,H12))</f>
@@ -9324,4 +9324,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101001B834A738C8B1C40A024E5288BC49878" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f69ab1fe66aff0d55d2752b906026fd8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2701940-9684-4f5e-8fe6-9a4c47cfb5de" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2a62b3c9cfe0ef7be6a94fa5c506abf" ns2:_="">
+    <xsd:import namespace="f2701940-9684-4f5e-8fe6-9a4c47cfb5de"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f2701940-9684-4f5e-8fe6-9a4c47cfb5de" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{268690C8-6E4B-4EEB-87E4-66A2402067F9}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39EE8AA-2C0F-48F4-A0C4-4AF7E9BEB7B6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF766E0-F4A7-4B83-880B-509F15371D7E}"/>
 </file>